--- a/uploads/student_bulk_upload_error_details_for_excel_file.xlsx
+++ b/uploads/student_bulk_upload_error_details_for_excel_file.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>Student Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>First Name</t>
   </si>
   <si>
     <t>Middle Name</t>
@@ -26,130 +26,73 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
-    <t>Caste Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Class Name</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Course</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Select Parent</t>
+  </si>
+  <si>
+    <t>Course Major</t>
+  </si>
+  <si>
+    <t>Select Class</t>
+  </si>
+  <si>
+    <t>Select Section</t>
   </si>
   <si>
     <t>Previous School</t>
   </si>
   <si>
-    <t>Parent EmailId</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Card Id</t>
+  </si>
+  <si>
+    <t>Icard Type</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Passport No</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>Identity Card Type</t>
-  </si>
-  <si>
-    <t>Identity Card</t>
-  </si>
-  <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>pretro</t>
-  </si>
-  <si>
-    <t>animin</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>28.12.2015</t>
+    <t>test stud name</t>
+  </si>
+  <si>
+    <t>temp stud name</t>
+  </si>
+  <si>
+    <t>12.10.2016</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>studemail@studemail.com</t>
   </si>
   <si>
     <t>general</t>
-  </si>
-  <si>
-    <t>JS Nursery</t>
-  </si>
-  <si>
-    <t>JS Nursery Sector JSA</t>
-  </si>
-  <si>
-    <t>no croouce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no prev school</t>
-  </si>
-  <si>
-    <t>Shaitan1@global.com</t>
-  </si>
-  <si>
-    <t>no address</t>
-  </si>
-  <si>
-    <t>no loc</t>
-  </si>
-  <si>
-    <t>aruni.morissu4434@gmail.com</t>
-  </si>
-  <si>
-    <t>teaste</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>jodhpur</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>retro</t>
-  </si>
-  <si>
-    <t>animim</t>
-  </si>
-  <si>
-    <t>28.12.2016</t>
-  </si>
-  <si>
-    <t>Kamal1@global.com</t>
-  </si>
-  <si>
-    <t>csunil.bismutin2356@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -488,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,144 +500,25 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2">
-        <v>452553241</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2">
-        <v>1432423</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2">
-        <v>321431</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>636757338</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3">
-        <v>1432423</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3">
-        <v>321431</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
